--- a/对照表.xlsx
+++ b/对照表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\尹豪杰\Pictures\artifact_calculator_demo4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74528118-D6E0-407D-A90B-1B50A865C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C29813C-A18E-41C0-A225-5EBD63B67DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2775" windowWidth="16200" windowHeight="9360" xr2:uid="{BEC71564-A5F8-407D-8F99-0054C0FAD13F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{BEC71564-A5F8-407D-8F99-0054C0FAD13F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>hp</t>
   </si>
@@ -89,15 +89,9 @@
     <t>pyro</t>
   </si>
   <si>
-    <t>火</t>
-  </si>
-  <si>
     <t>dendro</t>
   </si>
   <si>
-    <t>草</t>
-  </si>
-  <si>
     <t>hydro</t>
   </si>
   <si>
@@ -113,21 +107,6 @@
     <t>geo</t>
   </si>
   <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>冰</t>
-  </si>
-  <si>
-    <t>雷</t>
-  </si>
-  <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>岩</t>
-  </si>
-  <si>
     <t>heal</t>
   </si>
   <si>
@@ -138,6 +117,24 @@
   </si>
   <si>
     <t>物理</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>plume</t>
+  </si>
+  <si>
+    <t>sands</t>
+  </si>
+  <si>
+    <t>goblet</t>
+  </si>
+  <si>
+    <t>circlect</t>
+  </si>
+  <si>
+    <t>位置对照</t>
   </si>
 </sst>
 </file>
@@ -161,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -231,22 +228,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,6 +278,539 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C864596D-F2E1-4831-8E07-369BF4770BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="962025"/>
+          <a:ext cx="200025" cy="195373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CE3DD4A-9E83-426D-AFE4-33DC1C978D43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="390525"/>
+          <a:ext cx="200025" cy="195373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1302ACAE-03D8-40AC-9112-853F4D6C3E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="1152525"/>
+          <a:ext cx="200025" cy="191861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44F2C29-3471-4160-83E9-A7E1E8CC8A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="200025"/>
+          <a:ext cx="161925" cy="190988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>214313</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C3E568-7DF6-4CA1-99AA-1C6F5797A2D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="771526"/>
+          <a:ext cx="204788" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD1D5AA-A03F-4A0E-A7CA-29942DC0897E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838326" y="581025"/>
+          <a:ext cx="190500" cy="195263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7219AE58-BFC1-4CE1-B026-BE6D46EA8FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="1343026"/>
+          <a:ext cx="200025" cy="204470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CEB14D-8BB8-4F77-B7FE-002063176CD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600451" y="190500"/>
+          <a:ext cx="209550" cy="190923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C9CB47-E7A5-429B-9800-8BF7764283C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="381000"/>
+          <a:ext cx="200025" cy="195479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>189803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D596D16A-BBC4-45E3-A850-9172757C7380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="571500"/>
+          <a:ext cx="180975" cy="189803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5557</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83D5455-6A6E-4A7C-A948-7FE189B01153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="762001"/>
+          <a:ext cx="180975" cy="196056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AB0A19-4D9D-44DC-9F59-A756FE0615C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="952500"/>
+          <a:ext cx="238125" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,142 +1110,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F3C29B-94DD-4110-BF88-4CAAE4B76713}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>